--- a/Interview_Questions.xlsx
+++ b/Interview_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisacollaco\OneDrive - KPMG\Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\Desktop\QnA_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B231F1-9A54-4A33-8FA1-D37A8BC2266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02258A05-F912-4C60-9E23-E3799D0D8708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="19080" windowHeight="10200" firstSheet="3" xr2:uid="{09FAA7D4-F021-4850-94B3-9031342AF14F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09FAA7D4-F021-4850-94B3-9031342AF14F}"/>
   </bookViews>
   <sheets>
     <sheet name="ML" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
     <sheet name="Stats" sheetId="4" r:id="rId4"/>
     <sheet name="Python" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -98,9 +87,6 @@
   </si>
   <si>
     <t>What are the support vectors in SVM? What is hinge loss</t>
-  </si>
-  <si>
-    <t>GET A BETTER ANSWER</t>
   </si>
   <si>
     <t xml:space="preserve">What is a kernel? Explain the kernel trick </t>
@@ -127,9 +113,6 @@
 Hinge loss: It is used to train the machine learning classifier, which is
 L(y) = max(0,1- yy)
 Where y = -1 or 1 indicating two classes and y represents the output form of t</t>
-  </si>
-  <si>
-    <t>GET BETTER ANSWER</t>
   </si>
   <si>
     <t>What is a Random Forest? How does it work?</t>
@@ -389,12 +372,1149 @@
   <si>
     <t>Add questions from WORD document. Answers are not required</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linearity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Assumes a linear relationship between predictors and the outcome.
+Checked using scatter plots or residual vs. fitted plots.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Independence:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Errors (residuals) should be independent across observations.
+Commonly violated in time-series data due to temporal correlations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homoscedasticity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Errors have constant variance across predictors.
+Violation can be seen in a funnel-shaped pattern in residual plots.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Multicollinearity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Predictors are not highly correlated.
+Detected using variance inflation factor (VIF).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normality of Errors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Errors should be normally distributed.
+Assessed using Q-Q plots or statistical tests like Shapiro-Wilk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class Imbalance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accuracy can be misleading in imbalanced classes. AUROC is more robust.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comprehensive:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Captures true positive and false positive rates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generalization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Better measure for out-of-sample performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUC represents the likelihood that a randomly chosen positive instance ranks above a negative one.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interpretation:
+The curve is plotted using the False positive rate (FP/(TN + FP)) and true positive rate (TP/(TP + FN))
+The area under the curve (AUC) shows the model performance.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If the area under the ROC curve is 0.5, then our model is completely random.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The model with AUC close to 1 is the better model.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AUC = 0.5: No discrimination.
+AUC = 1: Perfect discrimination.
+AUC between 0.5 and 1: Better than random guessing.
+AUC is insensitive to class imbalance compared to accuracy.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eigenvectors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Represent orthogonal axes of maximum variance in data.
+In PCA, they determine the principal components' directions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eigenvalues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Represent the amount of variance explained by their respective eigenvectors.
+Help in understanding data's inherent dimensions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entropy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measures impurity or disorder in a set.
+Formula: -∑ p(x) log2 p(x) for each class x.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Information Gain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Represents the reduction in entropy achieved by partitioning a dataset.
+Formula: Entropy(before) - Weighted Entropy(after split).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support Vectors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Data points that lie closest to the separating hyperplane.
+Crucial for defining the optimal boundary.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hinge Loss:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For data point x with label y and weight vector w, it's max(0, 1 - y*(w·x)).
+Encourages correct classification and a margin of at least 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kernel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Transforms input space into a higher-dimensional feature space.
+Helps in finding a hyperplane in the transformed space.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kernel Trick:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Efficiently computes dot products in the higher-dimensional space without explicitly mapping data points to that space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Address non-constancy of variance and non-normality in regression errors. A Box-Cox transformation is a statistical technique to transform non-normal dependent variables into a normal shape.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (λ):
+When λ=0, it's a log transformation.
+Different λ values represent different power transformations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linear:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For data that's linearly separable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polynomial:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Introduces polynomial features for non-linear data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RBF (Radial Basis Function):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Projects data into infinite dimensions using Gaussian functions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sigmoid:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uses a tanh function, mimicking neural networks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Loss Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Quantifies the error for a single sample.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cost Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Aggregation (typically average) of the loss across all samples. It's what training algorithms aim to minimize.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ensemble Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Combines multiple decision trees to produce more generalized predictions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mechanism:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Uses bootstrapped samples to build individual trees.
+Random forest builds a tree from a random sample of the columns in the test data
+Predictions are made by aggregating tree outputs (mode or mean).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visualization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Histograms, Q-Q plots, and P-P plots.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statistical Tests:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shapiro-Wilk, Anderson-Darling, Kolmogorov-Smirnov.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Based on data characteristics.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Techniques:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Linear Discrimination Analysis (LDA), ANOVA, Chi-Square Test, Mutual Information, Correlation Coefficient.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wrapper Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use predictive models for evaluation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Techniques:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Forward Selection (add features one by one), Backward Elimination (remove features one by one), Recursive Feature Elimination (RFE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Embedded Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Feature selection during algorithm operation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Techniques:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lasso Regression (L1 regularization), Decision Trees (importance scores).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hybrid Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Combine filter and wrapper strengths.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Techniques:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recursive Feature Addition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GD:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Uses the entire dataset to compute gradients and update weights once in each iteration.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Updates weights iteratively using a single sample per update, leading to faster but noisier convergence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ridge (L2 regularization):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Penalties are based on the squared magnitude of coefficients.
+Keeps all predictors, but shrinks some closer to zero.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lasso (L1 regularization):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Penalties are based on the absolute value of coefficients.
+Can force coefficients to be exactly zero, performing feature selection.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ridge is prefebl when :-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multicollinearity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ridge is preferable when dealing with multicollinearity. It regularizes coefficients but doesn't set them to zero.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature Selection:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lasso performs implicit feature selection by pushing some coefficients to zero. If you want to retain all features, Ridge may be more appropriate.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: For a high number of variables (p) greater than the number of observations (n), Lasso is preferred, while for p &lt; n, Ridge can be favorable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bias-Variance Trade-off:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ridge might have a slightly higher bias but can result in better predictive accuracy due to lower variance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interpretability:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If model interpretability and identifying significant predictors are essential, Lasso can be more beneficial as it produces a simpler model with fewer variables.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +1542,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -459,6 +1587,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,19 +1910,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BAD2B-1CCF-4660-AD6D-AB33ACC2208F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="3"/>
-    <col min="3" max="3" width="22.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="98.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="2" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="22.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="98.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.5">
+    <row r="2" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -812,8 +1947,11 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="121.5">
+      <c r="E2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -823,8 +1961,11 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="76.5">
+      <c r="E3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -834,8 +1975,11 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60.75">
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -845,8 +1989,11 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5">
+      <c r="E5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -856,8 +2003,11 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="72.599999999999994">
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -867,8 +2017,11 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5">
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -876,98 +2029,119 @@
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.95">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.1">
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="159.6">
+      <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="188.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="87">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="101.45">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="72.599999999999994">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="87">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -983,15 +2157,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="2"/>
-    <col min="3" max="3" width="35.5703125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="35.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="94" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1005,150 +2179,150 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87">
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="101.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72.599999999999994">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="174">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57.95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="159.6">
+    </row>
+    <row r="7" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="87">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1164,15 +2338,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="2"/>
-    <col min="3" max="3" width="26.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="106.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="26.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="106.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1186,83 +2360,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72.599999999999994">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72.599999999999994">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="87">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="130.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1278,12 +2452,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1297,44 +2471,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1350,17 +2524,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
